--- a/api_auto_maven/src/test/resources/base03/testcase_reflect.xlsx
+++ b/api_auto_maven/src/test/resources/base03/testcase_reflect.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21429F73-5315-4B48-8B25-C4FAEEC0938C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="13665" windowHeight="3330" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口基本信息" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>http://120.78.128.25:8080/futureloan/mvc/api/member/register</t>
   </si>
@@ -217,12 +218,15 @@
   </si>
   <si>
     <t>用户名或密码错误</t>
+  </si>
+  <si>
+    <t>登录成功</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,9 +274,80 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -286,7 +361,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -321,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,9 +429,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,6 +481,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -564,7 +673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -776,7 +885,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -784,11 +893,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -933,7 +1042,7 @@
         <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1005,7 +1114,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
